--- a/test_case_data/dubbocase.xlsx
+++ b/test_case_data/dubbocase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>用例id</t>
   </si>
@@ -39,7 +39,53 @@
     <t>期望</t>
   </si>
   <si>
-    <t>ccc</t>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>{'password':'1221'}</t>
+  </si>
+  <si>
+    <t>{'code':'0'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tuling123.com/openapi/api
+</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>{'password':'1222'}</t>
+  </si>
+  <si>
+    <t>{'code':'40004'}</t>
+  </si>
+  <si>
+    <t>https://api.douban.com/v2/photo/:id</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>{'password':'1223'}</t>
+  </si>
+  <si>
+    <t>{'code':'40005'}</t>
   </si>
 </sst>
 </file>
@@ -47,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -66,21 +112,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -92,23 +133,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -118,69 +231,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -194,25 +247,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,55 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,11 +345,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -316,30 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -355,17 +416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -381,10 +436,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -394,16 +447,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -412,192 +483,189 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -647,71 +715,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,20 +991,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -961,12 +1036,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="7:7">
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.tuling123.com/openapi/api" tooltip="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://api.douban.com/v2/photo/:id"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -974,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -991,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test_case_data/dubbocase.xlsx
+++ b/test_case_data/dubbocase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>用例id</t>
   </si>
@@ -39,7 +39,7 @@
     <t>期望</t>
   </si>
   <si>
-    <t>http://www.tuling123.com/openapi/api</t>
+    <t>http://www.pinkclassy.test.com/user/member/act_ajax_login</t>
   </si>
   <si>
     <t>POST</t>
@@ -48,44 +48,13 @@
     <t>qq</t>
   </si>
   <si>
-    <t>{'password':'1221'}</t>
-  </si>
-  <si>
-    <t>{'code':'0'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tuling123.com/openapi/api
-</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>{'password':'1222'}</t>
-  </si>
-  <si>
-    <t>{'code':'40004'}</t>
-  </si>
-  <si>
-    <t>https://api.douban.com/v2/photo/:id</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>{'password':'1223'}</t>
-  </si>
-  <si>
-    <t>{'code':'40005'}</t>
+    <t>{'securityToken': 'c063c4d327282264257d60163da3a33e';
+'username': '88@qq.com';
+'password': '111111v';
+'remember': 1}</t>
+  </si>
+  <si>
+    <t>{"status":false}</t>
   </si>
 </sst>
 </file>
@@ -98,7 +67,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -114,6 +83,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,6 +98,63 @@
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -133,6 +166,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
@@ -140,79 +186,16 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -225,15 +208,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -247,13 +223,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,49 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,27 +322,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,40 +352,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,6 +383,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -450,10 +426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -462,137 +438,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,11 +578,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1000,12 +979,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -1036,81 +1015,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="108" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.tuling123.com/openapi/api" tooltip="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://api.douban.com/v2/photo/:id"/>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
